--- a/outputs-HGR-r202/test-g__Eubacterium_F_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Eubacterium_F_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,14 +152,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,27 +185,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -221,7 +225,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -241,7 +245,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -261,7 +265,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -281,7 +285,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -301,460 +305,460 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.96530902954007469</v>
+        <v>7.8468178215136729e-07</v>
       </c>
       <c r="C7">
-        <v>0.028651661681477768</v>
+        <v>0.00022482953505161796</v>
       </c>
       <c r="D7">
-        <v>0.00018271370005805136</v>
+        <v>0.91598472474527237</v>
       </c>
       <c r="E7">
-        <v>0.0058565950783895917</v>
+        <v>0.083789661037893912</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>7.8468178215136729e-07</v>
+        <v>7.3876898144657556e-06</v>
       </c>
       <c r="C8">
-        <v>0.00022482953505161796</v>
+        <v>0.0034152646419375481</v>
       </c>
       <c r="D8">
-        <v>0.91598472474527237</v>
+        <v>0.97104988116541691</v>
       </c>
       <c r="E8">
-        <v>0.083789661037893912</v>
+        <v>0.025527466502831091</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>7.3876898144657556e-06</v>
+        <v>1.0831330077868023e-05</v>
       </c>
       <c r="C9">
-        <v>0.0034152646419375481</v>
+        <v>0.001696009056052805</v>
       </c>
       <c r="D9">
-        <v>0.97104988116541691</v>
+        <v>0.97013499400668779</v>
       </c>
       <c r="E9">
-        <v>0.025527466502831091</v>
+        <v>0.028158165607181523</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1.0831330077868023e-05</v>
+        <v>2.8592223648378373e-07</v>
       </c>
       <c r="C10">
-        <v>0.001696009056052805</v>
+        <v>0.00031484899634444261</v>
       </c>
       <c r="D10">
-        <v>0.97013499400668779</v>
+        <v>0.95443247103105944</v>
       </c>
       <c r="E10">
-        <v>0.028158165607181523</v>
+        <v>0.045252394050359766</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2.8592223648378373e-07</v>
+        <v>5.227337967240067e-06</v>
       </c>
       <c r="C11">
-        <v>0.00031484899634444261</v>
+        <v>0.00030180317871659286</v>
       </c>
       <c r="D11">
-        <v>0.95443247103105944</v>
+        <v>0.94478899198304722</v>
       </c>
       <c r="E11">
-        <v>0.045252394050359766</v>
+        <v>0.054903977500268882</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>5.227337967240067e-06</v>
+        <v>9.4279727002014615e-06</v>
       </c>
       <c r="C12">
-        <v>0.00030180317871659286</v>
+        <v>0.00045543654897691512</v>
       </c>
       <c r="D12">
-        <v>0.94478899198304722</v>
+        <v>0.93282656314543544</v>
       </c>
       <c r="E12">
-        <v>0.054903977500268882</v>
+        <v>0.066708572332887378</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>9.4279727002014615e-06</v>
+        <v>8.4501129443800892e-06</v>
       </c>
       <c r="C13">
-        <v>0.00045543654897691512</v>
+        <v>0.0028538138674548057</v>
       </c>
       <c r="D13">
-        <v>0.93282656314543544</v>
+        <v>0.96486255647296038</v>
       </c>
       <c r="E13">
-        <v>0.066708572332887378</v>
+        <v>0.032275179546640463</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>8.4501129443800892e-06</v>
+        <v>4.8402131024437963e-06</v>
       </c>
       <c r="C14">
-        <v>0.0028538138674548057</v>
+        <v>0.00089412683317726294</v>
       </c>
       <c r="D14">
-        <v>0.96486255647296038</v>
+        <v>0.9591844551913814</v>
       </c>
       <c r="E14">
-        <v>0.032275179546640463</v>
+        <v>0.039916577762338916</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>4.8402131024437963e-06</v>
+        <v>6.3720727850758867e-06</v>
       </c>
       <c r="C15">
-        <v>0.00089412683317726294</v>
+        <v>0.00077135643257137244</v>
       </c>
       <c r="D15">
-        <v>0.9591844551913814</v>
+        <v>0.96709507073740086</v>
       </c>
       <c r="E15">
-        <v>0.039916577762338916</v>
+        <v>0.032127200757242708</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6.3720727850758867e-06</v>
+        <v>6.0126925429304646e-05</v>
       </c>
       <c r="C16">
-        <v>0.00077135643257137244</v>
+        <v>0.0020684737615177355</v>
       </c>
       <c r="D16">
-        <v>0.96709507073740086</v>
+        <v>0.96935924473335833</v>
       </c>
       <c r="E16">
-        <v>0.032127200757242708</v>
+        <v>0.028512154579694703</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>6.0126925429304646e-05</v>
+        <v>3.2294954126615141e-06</v>
       </c>
       <c r="C17">
-        <v>0.0020684737615177355</v>
+        <v>0.0069812621190232828</v>
       </c>
       <c r="D17">
-        <v>0.96935924473335833</v>
+        <v>0.96985051961809554</v>
       </c>
       <c r="E17">
-        <v>0.028512154579694703</v>
+        <v>0.023164988767468496</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>3.2294954126615141e-06</v>
+        <v>3.0533595843384182e-05</v>
       </c>
       <c r="C18">
-        <v>0.0069812621190232828</v>
+        <v>0.0092369968036862884</v>
       </c>
       <c r="D18">
-        <v>0.96985051961809554</v>
+        <v>0.96912708753512145</v>
       </c>
       <c r="E18">
-        <v>0.023164988767468496</v>
+        <v>0.021605382065348889</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>3.0533595843384182e-05</v>
+        <v>3.6814523395791705e-06</v>
       </c>
       <c r="C19">
-        <v>0.0092369968036862884</v>
+        <v>0.00083225156778757607</v>
       </c>
       <c r="D19">
-        <v>0.96912708753512145</v>
+        <v>0.97342393127599414</v>
       </c>
       <c r="E19">
-        <v>0.021605382065348889</v>
+        <v>0.025740135703878578</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>3.6814523395791705e-06</v>
+        <v>3.607497479528062e-06</v>
       </c>
       <c r="C20">
-        <v>0.00083225156778757607</v>
+        <v>0.00049848846351069082</v>
       </c>
       <c r="D20">
-        <v>0.97342393127599414</v>
+        <v>0.93456928939591755</v>
       </c>
       <c r="E20">
-        <v>0.025740135703878578</v>
+        <v>0.064928614643092353</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>3.607497479528062e-06</v>
+        <v>9.9266184757117349e-06</v>
       </c>
       <c r="C21">
-        <v>0.00049848846351069082</v>
+        <v>0.0010556039626413636</v>
       </c>
       <c r="D21">
-        <v>0.93456928939591755</v>
+        <v>0.95132228534928909</v>
       </c>
       <c r="E21">
-        <v>0.064928614643092353</v>
+        <v>0.04761218406959386</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>9.9266184757117349e-06</v>
+        <v>7.6194906829767937e-06</v>
       </c>
       <c r="C22">
-        <v>0.0010556039626413636</v>
+        <v>0.0033183676559776511</v>
       </c>
       <c r="D22">
-        <v>0.95132228534928909</v>
+        <v>0.96379470070474083</v>
       </c>
       <c r="E22">
-        <v>0.04761218406959386</v>
+        <v>0.032879312148598523</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>7.6194906829767937e-06</v>
+        <v>6.3697446177097845e-06</v>
       </c>
       <c r="C23">
-        <v>0.0033183676559776511</v>
+        <v>0.00057761404846498414</v>
       </c>
       <c r="D23">
-        <v>0.96379470070474083</v>
+        <v>0.95431414371007062</v>
       </c>
       <c r="E23">
-        <v>0.032879312148598523</v>
+        <v>0.045101872496846669</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>6.3697446177097845e-06</v>
+        <v>0.0015208661788089209</v>
       </c>
       <c r="C24">
-        <v>0.00057761404846498414</v>
+        <v>0.15245699479934657</v>
       </c>
       <c r="D24">
-        <v>0.95431414371007062</v>
+        <v>0.004848947684312631</v>
       </c>
       <c r="E24">
-        <v>0.045101872496846669</v>
+        <v>0.84117319133753199</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.057209424535076533</v>
+        <v>4.2670381012812649e-06</v>
       </c>
       <c r="C25">
-        <v>0.73410147710864604</v>
+        <v>0.00090669790227856169</v>
       </c>
       <c r="D25">
-        <v>0.010277930539584968</v>
+        <v>0.95672020414324765</v>
       </c>
       <c r="E25">
-        <v>0.19841116781669235</v>
+        <v>0.042368830916372419</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.0015208661788089209</v>
+        <v>2.964121127479407e-05</v>
       </c>
       <c r="C26">
-        <v>0.15245699479934657</v>
+        <v>0.00099323858121386503</v>
       </c>
       <c r="D26">
-        <v>0.004848947684312631</v>
+        <v>0.95859743023366717</v>
       </c>
       <c r="E26">
-        <v>0.84117319133753199</v>
+        <v>0.040379689973844078</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>4.2670381012812649e-06</v>
+        <v>4.313465580677852e-06</v>
       </c>
       <c r="C27">
-        <v>0.00090669790227856169</v>
+        <v>0.00082695501523989473</v>
       </c>
       <c r="D27">
-        <v>0.95672020414324765</v>
+        <v>0.92363746799259205</v>
       </c>
       <c r="E27">
-        <v>0.042368830916372419</v>
+        <v>0.075531263526587358</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>2.964121127479407e-05</v>
+        <v>2.1508584331884072e-05</v>
       </c>
       <c r="C28">
-        <v>0.00099323858121386503</v>
+        <v>0.0034235168471760695</v>
       </c>
       <c r="D28">
-        <v>0.95859743023366717</v>
+        <v>0.97810253867391495</v>
       </c>
       <c r="E28">
-        <v>0.040379689973844078</v>
+        <v>0.018452435894577065</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>4.313465580677852e-06</v>
+        <v>3.4709400979990046e-05</v>
       </c>
       <c r="C29">
-        <v>0.00082695501523989473</v>
+        <v>0.0049307303784676699</v>
       </c>
       <c r="D29">
-        <v>0.92363746799259205</v>
+        <v>0.96676991699174908</v>
       </c>
       <c r="E29">
-        <v>0.075531263526587358</v>
+        <v>0.02826464322880326</v>
       </c>
       <c r="F29">
         <v>3</v>
